--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,298 +40,295 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>paid</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>air</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>sent</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>within</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>part</t>
+    <t>back</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>better</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>another</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>time</t>
@@ -340,9 +337,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -355,103 +349,100 @@
     <t>blast</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>expansion</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>challenge</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>elf</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>expansion</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>family</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>easy</t>
@@ -815,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +814,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -884,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9594594594594594</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -902,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K3">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -926,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -934,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -952,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4">
-        <v>0.6615384615384615</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -976,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -984,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>0.59375</v>
@@ -1034,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1052,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1076,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1084,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9347826086956522</v>
+        <v>0.912621359223301</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1102,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K7">
         <v>0.5625</v>
@@ -1134,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9301075268817204</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1152,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K8">
-        <v>0.5483870967741935</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1176,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1184,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9077669902912622</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1226,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1234,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8709677419354839</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1252,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1284,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8315789473684211</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>0.4375</v>
+        <v>0.4045643153526971</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1326,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1334,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,16 +1346,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K12">
-        <v>0.4149377593360996</v>
+        <v>0.3916786226685796</v>
       </c>
       <c r="L12">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>282</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1384,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13">
-        <v>0.3959827833572453</v>
+        <v>0.390625</v>
       </c>
       <c r="L13">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1426,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>421</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1434,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7894736842105263</v>
+        <v>0.796875</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1452,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>0.3829787234042553</v>
+        <v>0.3883792048929663</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1476,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1484,13 +1475,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7890625</v>
+        <v>0.7421875</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1502,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>0.3636363636363636</v>
+        <v>0.375</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1534,13 +1525,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K16">
         <v>0.3571428571428572</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1576,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1584,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6721311475409836</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K17">
-        <v>0.3571428571428572</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1626,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1634,13 +1625,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6507936507936508</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1652,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K18">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,13 +1675,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6296296296296297</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1702,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K19">
-        <v>0.3363914373088685</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1726,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>217</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,13 +1725,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6222222222222222</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1752,31 +1743,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K20">
-        <v>0.3333333333333333</v>
+        <v>0.2933442892358258</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>860</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1784,49 +1775,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>39</v>
-      </c>
-      <c r="D21">
-        <v>39</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>24</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,13 +1825,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6181818181818182</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1852,31 +1843,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22">
-        <v>0.3059885151763741</v>
+        <v>0.2262569832402235</v>
       </c>
       <c r="L22">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="M22">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>846</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1884,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5971563981042654</v>
+        <v>0.6208530805687204</v>
       </c>
       <c r="C23">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D23">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1902,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23">
-        <v>0.2478632478632479</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1926,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1934,13 +1925,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1952,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K24">
-        <v>0.2424242424242424</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1976,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1984,13 +1975,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5208333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2002,31 +1993,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25">
-        <v>0.2402234636871508</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L25">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>272</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2034,13 +2025,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5142857142857142</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2052,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K26">
-        <v>0.2228915662650602</v>
+        <v>0.1747888239116309</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>129</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2084,13 +2075,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.504950495049505</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C27">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2102,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K27">
-        <v>0.1798941798941799</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2126,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2134,13 +2125,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2152,31 +2143,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K28">
-        <v>0.1697009102730819</v>
+        <v>0.1432337434094903</v>
       </c>
       <c r="L28">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="M28">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>1277</v>
+        <v>975</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2184,49 +2175,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4948453608247423</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C29">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>48</v>
       </c>
-      <c r="D29">
-        <v>48</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>49</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K29">
-        <v>0.1491228070175439</v>
+        <v>0.128</v>
       </c>
       <c r="L29">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>970</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2225,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2252,31 +2243,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K30">
-        <v>0.1298701298701299</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2284,13 +2275,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.475</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2302,31 +2293,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>0.1258741258741259</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>250</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2334,7 +2325,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4642857142857143</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -2352,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32">
-        <v>0.125</v>
+        <v>0.1171875</v>
       </c>
       <c r="L32">
         <v>15</v>
@@ -2376,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2384,13 +2375,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4492753623188406</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C33">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2402,31 +2393,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K33">
-        <v>0.1229508196721311</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>107</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2434,13 +2425,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4492753623188406</v>
+        <v>0.475</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2452,31 +2443,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K34">
-        <v>0.12</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2484,13 +2475,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4473684210526316</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2502,31 +2493,31 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>45</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35">
+        <v>0.06542056074766354</v>
+      </c>
+      <c r="L35">
         <v>21</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
       <c r="M35">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>171</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2534,13 +2525,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4351851851851852</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2552,31 +2543,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K36">
-        <v>0.06191950464396285</v>
+        <v>0.05473965287049399</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>303</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2584,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4310344827586207</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2602,31 +2593,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K37">
-        <v>0.06048387096774194</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>233</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2634,13 +2625,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4107142857142857</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2652,31 +2643,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K38">
-        <v>0.04959785522788204</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>709</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2684,13 +2675,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4096385542168675</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2702,31 +2693,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>49</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39">
-        <v>0.04289544235924933</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>17</v>
-      </c>
-      <c r="N39">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O39">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>357</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2734,13 +2701,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4047619047619048</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2752,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2760,13 +2727,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4024390243902439</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2778,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2786,13 +2753,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3829113924050633</v>
+        <v>0.4189189189189189</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2804,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>195</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2812,13 +2779,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3378378378378378</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2830,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2838,25 +2805,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3277310924369748</v>
+        <v>0.390625</v>
       </c>
       <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>39</v>
-      </c>
-      <c r="D44">
-        <v>39</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2864,13 +2831,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3243243243243243</v>
+        <v>0.3829113924050633</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2882,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2890,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3174603174603174</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2908,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2916,13 +2883,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3035714285714285</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2934,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2942,13 +2909,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2971014492753623</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C48">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2960,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>194</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2968,13 +2935,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2943037974683544</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C49">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2986,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2994,13 +2961,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2941176470588235</v>
+        <v>0.31</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3012,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3020,13 +2987,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2834645669291339</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3038,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3046,25 +3013,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.27</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="C52">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3072,13 +3039,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.247191011235955</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3090,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3098,25 +3065,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2417582417582418</v>
+        <v>0.2763636363636364</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3124,7 +3091,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2380952380952381</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C55">
         <v>15</v>
@@ -3142,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3150,13 +3117,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.234375</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3168,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>49</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3176,25 +3143,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2312775330396476</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="C57">
+        <v>34</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>0.03</v>
+      </c>
+      <c r="F57">
+        <v>0.97</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>105</v>
-      </c>
-      <c r="D57">
-        <v>105</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3202,13 +3169,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.21875</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3220,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3228,13 +3195,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2185792349726776</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3246,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3280,13 +3247,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2051282051282051</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3298,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3306,13 +3273,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2046783625730994</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3324,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3332,25 +3299,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1965811965811966</v>
+        <v>0.2038690476190476</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>94</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3358,13 +3325,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1926605504587156</v>
+        <v>0.1953125</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3376,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3384,25 +3351,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.187221396731055</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C65">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>547</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3410,25 +3377,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.186046511627907</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>70</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3436,13 +3403,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1785714285714286</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3454,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3462,13 +3429,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3480,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3488,13 +3455,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1666666666666667</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3506,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3514,13 +3481,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1635514018691589</v>
+        <v>0.1519823788546255</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3532,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>179</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3540,13 +3507,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1623931623931624</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3558,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3566,13 +3533,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1542857142857143</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3584,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3592,25 +3559,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1478260869565217</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>294</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3618,13 +3585,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3636,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3644,25 +3611,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1424050632911392</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D75">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>271</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3670,25 +3637,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1384615384615385</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C76">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3696,13 +3663,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1363636363636364</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3714,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3722,25 +3689,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1337579617834395</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3748,13 +3715,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1283783783783784</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3766,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3774,25 +3741,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1227436823104693</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="C80">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D80">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E80">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F80">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>243</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3800,25 +3767,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1068702290076336</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C81">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>585</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3826,25 +3793,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1055900621118012</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>144</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3852,25 +3819,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1041095890410959</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C83">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>327</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3878,25 +3845,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.103448275862069</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C84">
         <v>18</v>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3904,25 +3871,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1021505376344086</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>167</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3930,13 +3897,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3948,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3956,25 +3923,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09324009324009325</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>389</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3982,25 +3949,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09027777777777778</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>393</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4008,25 +3975,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08646616541353383</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E89">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F89">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>243</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4034,25 +4001,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0855614973262032</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F90">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4060,13 +4027,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08021390374331551</v>
+        <v>0.07641196013289037</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E91">
         <v>0.12</v>
@@ -4078,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>172</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4086,13 +4053,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07894736842105263</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4104,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4112,25 +4079,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0782608695652174</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="C93">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E93">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F93">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4138,25 +4105,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.07082152974504249</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F94">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>328</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4164,13 +4131,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0664451827242525</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4182,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4190,25 +4157,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06122448979591837</v>
+        <v>0.06312292358803986</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>230</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4216,25 +4183,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.05781584582441113</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="C97">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D97">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F97">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4242,25 +4209,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.05607476635514019</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="C98">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F98">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4268,25 +4235,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.05463576158940397</v>
+        <v>0.04382470119521913</v>
       </c>
       <c r="C99">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D99">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F99">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>571</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4294,25 +4261,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.04273504273504274</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>336</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4320,77 +4287,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03881278538812785</v>
+        <v>0.04076433121019108</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D101">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E101">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F101">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102">
-        <v>0.02915082382762991</v>
-      </c>
-      <c r="C102">
-        <v>23</v>
-      </c>
-      <c r="D102">
-        <v>28</v>
-      </c>
-      <c r="E102">
-        <v>0.18</v>
-      </c>
-      <c r="F102">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103">
-        <v>0.02180232558139535</v>
-      </c>
-      <c r="C103">
-        <v>15</v>
-      </c>
-      <c r="D103">
-        <v>19</v>
-      </c>
-      <c r="E103">
-        <v>0.21</v>
-      </c>
-      <c r="F103">
-        <v>0.79</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>673</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
